--- a/Team-Data/2011-12/3-8-2011-12.xlsx
+++ b/Team-Data/2011-12/3-8-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -759,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="AI2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>14</v>
@@ -965,7 +1032,7 @@
         <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1229,7 @@
         <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -1212,64 +1279,64 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="n">
         <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.786</v>
+        <v>0.805</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J5" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.382</v>
+        <v>0.387</v>
       </c>
       <c r="O5" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R5" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="S5" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T5" t="n">
-        <v>45.8</v>
+        <v>45.9</v>
       </c>
       <c r="U5" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X5" t="n">
         <v>5.7</v>
@@ -1278,16 +1345,16 @@
         <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="AA5" t="n">
         <v>17.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1296,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
@@ -1311,22 +1378,22 @@
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL5" t="n">
         <v>18</v>
       </c>
       <c r="AM5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP5" t="n">
         <v>20</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>25</v>
@@ -1338,13 +1405,13 @@
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
         <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.575</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J7" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K7" t="n">
         <v>0.436</v>
@@ -1609,49 +1676,49 @@
         <v>0.327</v>
       </c>
       <c r="O7" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="P7" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q7" t="n">
         <v>0.751</v>
       </c>
       <c r="R7" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S7" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T7" t="n">
-        <v>43</v>
+        <v>43.2</v>
       </c>
       <c r="U7" t="n">
         <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y7" t="n">
         <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB7" t="n">
         <v>94.09999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD7" t="n">
         <v>2</v>
@@ -1660,16 +1727,16 @@
         <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>13</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
         <v>12</v>
@@ -1684,10 +1751,10 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
@@ -1708,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW7" t="n">
         <v>3</v>
@@ -1717,10 +1784,10 @@
         <v>14</v>
       </c>
       <c r="AY7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>2.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -2075,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2297,7 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
         <v>26</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2685,7 @@
         <v>28</v>
       </c>
       <c r="AV12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW12" t="n">
         <v>8</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -2976,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>13</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>2.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>6</v>
@@ -3128,7 +3195,7 @@
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
         <v>11</v>
@@ -3176,7 +3243,7 @@
         <v>22</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
         <v>16</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
         <v>3</v>
@@ -3355,7 +3422,7 @@
         <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3565,7 @@
         <v>27</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM17" t="n">
         <v>14</v>
@@ -3537,13 +3604,13 @@
         <v>18</v>
       </c>
       <c r="AY17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ17" t="n">
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3686,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4108,7 @@
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
@@ -4053,7 +4120,7 @@
         <v>26</v>
       </c>
       <c r="AO20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4311,7 @@
         <v>15</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>16</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -4393,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" t="n">
         <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>0.634</v>
+        <v>0.625</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
@@ -4515,37 +4582,37 @@
         <v>10.3</v>
       </c>
       <c r="M23" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="O23" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="P23" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.648</v>
+        <v>0.644</v>
       </c>
       <c r="R23" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S23" t="n">
         <v>32.1</v>
       </c>
       <c r="T23" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
         <v>15.2</v>
       </c>
       <c r="W23" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
@@ -4557,10 +4624,10 @@
         <v>18.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="AC23" t="n">
         <v>2.2</v>
@@ -4569,7 +4636,7 @@
         <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF23" t="n">
         <v>6</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>7.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>6</v>
@@ -4790,7 +4857,7 @@
         <v>21</v>
       </c>
       <c r="AR24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" t="n">
         <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>0.462</v>
+        <v>0.447</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
@@ -4870,34 +4937,34 @@
         <v>36.5</v>
       </c>
       <c r="J25" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O25" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P25" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.762</v>
+        <v>0.765</v>
       </c>
       <c r="R25" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T25" t="n">
         <v>42.1</v>
@@ -4906,40 +4973,40 @@
         <v>22.3</v>
       </c>
       <c r="V25" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W25" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X25" t="n">
         <v>5.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB25" t="n">
         <v>94.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="n">
         <v>19</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH25" t="n">
         <v>29</v>
@@ -4948,31 +5015,31 @@
         <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP25" t="n">
         <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS25" t="n">
         <v>11</v>
@@ -4987,7 +5054,7 @@
         <v>13</v>
       </c>
       <c r="AW25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
@@ -4999,7 +5066,7 @@
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5233,7 @@
         <v>7</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5497,7 +5564,7 @@
         <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL28" t="n">
         <v>3</v>
@@ -5512,7 +5579,7 @@
         <v>21</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>24</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5755,7 @@
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="n">
         <v>17</v>
@@ -5894,7 +5961,7 @@
         <v>15</v>
       </c>
       <c r="AV30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6049,7 +6116,7 @@
         <v>25</v>
       </c>
       <c r="AM31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-8-2011-12</t>
+          <t>2012-03-08</t>
         </is>
       </c>
     </row>
